--- a/QP1/Results_1107.xlsx
+++ b/QP1/Results_1107.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jxn174\Documents\Github\Data-and-code\QP1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jxn174\Documents\GitHub\Data-and-code\QP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="80">
   <si>
     <t>(1)</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Treat</t>
   </si>
   <si>
-    <t>-0.4***</t>
-  </si>
-  <si>
     <t>(0.1)</t>
   </si>
   <si>
@@ -179,12 +176,6 @@
     <t>Table 2. Estimation results for nonzero delay with all projects</t>
   </si>
   <si>
-    <t>Table 3. Estimation results for delay probability with projects that delay only once</t>
-  </si>
-  <si>
-    <t>-0.7***</t>
-  </si>
-  <si>
     <t>(0.08)</t>
   </si>
   <si>
@@ -194,39 +185,18 @@
     <t>0.3**</t>
   </si>
   <si>
-    <t>(0.2)</t>
-  </si>
-  <si>
-    <t>0.3*</t>
-  </si>
-  <si>
-    <t>-0.5***</t>
-  </si>
-  <si>
     <t>0.06</t>
   </si>
   <si>
-    <t>-0.34***</t>
-  </si>
-  <si>
     <t>(0.10)</t>
   </si>
   <si>
     <t>0.5***</t>
   </si>
   <si>
-    <t>0.05</t>
-  </si>
-  <si>
     <t>(0.06)</t>
   </si>
   <si>
-    <t>-0.30***</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
     <t>Table 4. Estimation results for delay probability with all projects</t>
   </si>
   <si>
@@ -270,6 +240,30 @@
   </si>
   <si>
     <t>0.22***</t>
+  </si>
+  <si>
+    <t>-1.7***</t>
+  </si>
+  <si>
+    <t>1.4***</t>
+  </si>
+  <si>
+    <t>0.2**</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>-0.29***</t>
+  </si>
+  <si>
+    <t>-0.10*</t>
+  </si>
+  <si>
+    <t>Table 3. Estimation results for delay probability with projects that delay at most once</t>
+  </si>
+  <si>
+    <t>-0.3***</t>
   </si>
 </sst>
 </file>
@@ -342,16 +336,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -360,6 +348,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -646,7 +640,7 @@
   <dimension ref="B2:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,13 +654,13 @@
   <sheetData>
     <row r="2" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="G2" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
@@ -717,348 +711,348 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="G9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="G10" s="14"/>
+      <c r="H10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+      <c r="C14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="G14" s="14"/>
+      <c r="H14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="C17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="H17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="J17" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="C18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="D18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="E18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="G18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="H18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="I18" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="J18" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>0.03</v>
@@ -1070,7 +1064,7 @@
         <v>0.15</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H19">
         <v>0.01</v>
@@ -1083,40 +1077,40 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="15">
+      <c r="B20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="13">
         <v>17679</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="13">
         <v>17679</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="13">
         <v>17679</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="15">
+        <v>23</v>
+      </c>
+      <c r="H20" s="13">
         <v>23324</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="13">
         <v>23324</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="13">
         <v>23324</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="G23" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
@@ -1167,373 +1161,390 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="14"/>
+      <c r="C27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+      <c r="C29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="G30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="C31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="14"/>
+      <c r="C33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+      <c r="C35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="I35" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
+      <c r="I36" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="15"/>
+      <c r="C37" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="15"/>
+      <c r="H37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="C38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="C35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="C37" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="12" t="s">
+      <c r="H38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="J38" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="C39" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="D39" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="E39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="G39" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="13" t="s">
+      <c r="H39" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J38" s="13" t="s">
+      <c r="I39" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="J39" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="15">
-        <v>45688</v>
-      </c>
-      <c r="D40" s="15">
-        <v>45688</v>
-      </c>
-      <c r="E40" s="15">
-        <v>45424</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="15">
+      <c r="B40" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="13">
+        <v>97646</v>
+      </c>
+      <c r="D40" s="13">
+        <v>97646</v>
+      </c>
+      <c r="E40" s="13">
+        <v>96360</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="13">
         <v>125426</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I40" s="13">
         <v>125426</v>
       </c>
-      <c r="J40" s="15">
+      <c r="J40" s="13">
         <v>124297</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="B36:B37"/>
@@ -1544,29 +1555,12 @@
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="G34:G35"/>
     <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C3:E16 H3:J18 C24:E25 C27:E37 D26:E26 H24:J37" numberStoredAsText="1"/>
+    <ignoredError sqref="C3:E16 H3:J18 C24:E25 C27 H24:J37 C29 C31 C35 C37 E36 D37:E37 D34:E34 D35:E35 E30 D31:E31 D29 D26:E28 D30 E29 D32:E33 D36 C33" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>